--- a/excel/state_spaces/q learning 5 rooms.xlsx
+++ b/excel/state_spaces/q learning 5 rooms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mehg_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mehg_000\Documents\git_workspace\Marble_finding_robot\excel\state_spaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" tabRatio="620" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" tabRatio="620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Distance punishments" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191638088"/>
-        <c:axId val="191636912"/>
+        <c:axId val="229842224"/>
+        <c:axId val="229841440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -946,11 +946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191636520"/>
-        <c:axId val="191638872"/>
+        <c:axId val="229841832"/>
+        <c:axId val="229844576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191638088"/>
+        <c:axId val="229842224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1049,7 +1048,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191636912"/>
+        <c:crossAx val="229841440"/>
         <c:crossesAt val="-5500"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191636912"/>
+        <c:axId val="229841440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1110,7 +1109,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1171,12 +1169,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191638088"/>
+        <c:crossAx val="229842224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191638872"/>
+        <c:axId val="229844576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1215,7 +1213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1276,12 +1273,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191636520"/>
+        <c:crossAx val="229841832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="191636520"/>
+        <c:axId val="229841832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191638872"/>
+        <c:crossAx val="229844576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1305,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1739,8 +1735,8 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191635736"/>
-        <c:axId val="191637304"/>
+        <c:axId val="229845752"/>
+        <c:axId val="229847320"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2075,11 +2071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="238016176"/>
-        <c:axId val="238015392"/>
+        <c:axId val="229840264"/>
+        <c:axId val="229847712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191635736"/>
+        <c:axId val="229845752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2178,7 +2173,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191637304"/>
+        <c:crossAx val="229847320"/>
         <c:crossesAt val="-5500"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191637304"/>
+        <c:axId val="229847320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2239,7 +2234,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2300,12 +2294,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191635736"/>
+        <c:crossAx val="229845752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238015392"/>
+        <c:axId val="229847712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -2344,7 +2338,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2405,12 +2398,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238016176"/>
+        <c:crossAx val="229840264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="238016176"/>
+        <c:axId val="229840264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238015392"/>
+        <c:crossAx val="229847712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2430,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3954,7 +3946,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4261,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4738,7 +4730,7 @@
     <sheetView zoomScale="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5880,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
